--- a/real_estate_sheet.xlsx
+++ b/real_estate_sheet.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hitesh/Desktop/bizassist/agent/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hitesh/Desktop/realtor-assist/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B5616AB-9DE5-7E4D-9C34-04627DFFAE4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67FAF7E2-C80F-6E48-BF07-1BBE5136D3E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="740" windowWidth="19300" windowHeight="16960" xr2:uid="{4003D3FF-531C-2B44-BA08-9E92D6F52DD4}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="88">
   <si>
     <t>S.No.</t>
   </si>
@@ -212,9 +212,6 @@
     <t>{'gender': 'Any', 'age': '25-35', 'profession': 'Working Professional', 'move_in_date': 'ASAP', 'lease_period': '1 year'}</t>
   </si>
   <si>
-    <t>{'profession': 'Student', 'move_in_date': 'Immediate', 'lease_period': '3-12 months'}</t>
-  </si>
-  <si>
     <t>{'gender': 'Male', 'age': '30-40', 'country': 'Any', 'profession': 'IT Professional', 'lease_period': '2 years'}</t>
   </si>
   <si>
@@ -236,9 +233,6 @@
     <t>{'gender': 'Any', 'type_of_pass': 'Any', 'lease_period': '12 months'}</t>
   </si>
   <si>
-    <t>{'gender': 'Female', 'no_cooking': True, 'type_of_pass': 'EP', 'profession': 'Working Professional', 'no_visitors': True}</t>
-  </si>
-  <si>
     <t>{'gender': 'Female', 'no_cooking': True, 'no_indian': True, 'type_of_pass': 'EP', 'profession': 'Teacher', 'lease_period': '1 year'}</t>
   </si>
   <si>
@@ -260,9 +254,6 @@
     <t>Link1</t>
   </si>
   <si>
-    <t>Link2</t>
-  </si>
-  <si>
     <t>Link3</t>
   </si>
   <si>
@@ -306,6 +297,9 @@
   </si>
   <si>
     <t>Common</t>
+  </si>
+  <si>
+    <t>{'profession': 'Working Professional', 'move_in_date': 'June', 'lease_period': '1 year'}</t>
   </si>
 </sst>
 </file>
@@ -702,10 +696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21E56970-7E21-1640-82F9-FFB6DFA8FA1A}">
-  <dimension ref="A1:L22"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -755,7 +749,7 @@
         <v>9</v>
       </c>
       <c r="K1" s="4" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="L1" s="3" t="s">
         <v>56</v>
@@ -790,10 +784,10 @@
         <v>15</v>
       </c>
       <c r="J2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="L2" t="s">
         <v>57</v>
@@ -801,10 +795,10 @@
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B3" s="2">
-        <v>45554</v>
+        <v>45583</v>
       </c>
       <c r="C3" t="s">
         <v>11</v>
@@ -816,10 +810,10 @@
         <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G3" s="1">
-        <v>1750</v>
+        <v>1800</v>
       </c>
       <c r="H3">
         <v>1</v>
@@ -831,45 +825,45 @@
         <v>2</v>
       </c>
       <c r="K3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="L3" t="s">
-        <v>66</v>
+        <v>87</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" s="2">
-        <v>45583</v>
+        <v>4</v>
+      </c>
+      <c r="B4" t="s">
+        <v>10</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="D4" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>89</v>
+        <v>22</v>
       </c>
       <c r="G4" s="1">
-        <v>1800</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>2300</v>
+      </c>
+      <c r="H4" t="s">
+        <v>17</v>
       </c>
       <c r="I4" t="s">
-        <v>18</v>
-      </c>
-      <c r="J4">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="J4" t="s">
+        <v>85</v>
       </c>
       <c r="K4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="L4" t="s">
         <v>58</v>
@@ -877,10 +871,10 @@
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
+        <v>5</v>
+      </c>
+      <c r="B5" s="2">
+        <v>45626</v>
       </c>
       <c r="C5" t="s">
         <v>19</v>
@@ -892,98 +886,98 @@
         <v>21</v>
       </c>
       <c r="F5" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G5" s="1">
-        <v>2300</v>
-      </c>
-      <c r="H5" t="s">
-        <v>17</v>
+        <v>1680</v>
+      </c>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5" t="s">
-        <v>15</v>
-      </c>
-      <c r="J5" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
       </c>
       <c r="K5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" s="2">
-        <v>45626</v>
+        <v>6</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
       </c>
       <c r="C6" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="F6" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G6" s="1">
-        <v>1680</v>
-      </c>
-      <c r="H6">
-        <v>1</v>
+        <v>2800</v>
+      </c>
+      <c r="H6" t="s">
+        <v>17</v>
       </c>
       <c r="I6" t="s">
-        <v>18</v>
-      </c>
-      <c r="J6">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="J6" t="s">
+        <v>85</v>
       </c>
       <c r="K6" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="L6" t="s">
-        <v>67</v>
+        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>10</v>
+        <v>7</v>
+      </c>
+      <c r="B7" s="2">
+        <v>45641</v>
       </c>
       <c r="C7" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E7" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="F7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G7" s="1">
-        <v>2800</v>
-      </c>
-      <c r="H7" t="s">
-        <v>17</v>
+        <v>2100</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J7" t="s">
-        <v>88</v>
+        <v>15</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="L7" t="s">
         <v>60</v>
@@ -991,151 +985,151 @@
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" s="2">
-        <v>45641</v>
+        <v>8</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="F8" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="G8" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H8">
-        <v>1</v>
+        <v>2500</v>
+      </c>
+      <c r="H8" t="s">
+        <v>17</v>
       </c>
       <c r="I8" t="s">
         <v>15</v>
       </c>
-      <c r="J8">
-        <v>1</v>
+      <c r="J8" t="s">
+        <v>85</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="L8" t="s">
-        <v>61</v>
+        <v>66</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
+        <v>9</v>
+      </c>
+      <c r="B9" s="2">
+        <v>45292</v>
       </c>
       <c r="C9" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="E9" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="F9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="G9" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H9" t="s">
-        <v>17</v>
+        <v>1500</v>
+      </c>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="J9">
+        <v>2</v>
       </c>
       <c r="K9" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="L9" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" s="2">
-        <v>45292</v>
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F10" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="G10" s="1">
-        <v>1500</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
+        <v>3200</v>
+      </c>
+      <c r="H10" t="s">
+        <v>17</v>
       </c>
       <c r="I10" t="s">
-        <v>18</v>
-      </c>
-      <c r="J10">
-        <v>2</v>
+        <v>26</v>
+      </c>
+      <c r="J10" t="s">
+        <v>85</v>
       </c>
       <c r="K10" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="L10" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="B11" s="2">
+        <v>45601</v>
       </c>
       <c r="C11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="D11" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="E11" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="G11" s="1">
-        <v>3200</v>
+        <v>2100</v>
       </c>
       <c r="H11" t="s">
         <v>17</v>
       </c>
       <c r="I11" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="J11" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="L11" t="s">
         <v>62</v>
@@ -1143,37 +1137,37 @@
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" s="2">
-        <v>45601</v>
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>10</v>
       </c>
       <c r="C12" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="F12" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="G12" s="1">
-        <v>2100</v>
-      </c>
-      <c r="H12" t="s">
-        <v>17</v>
+        <v>1350</v>
+      </c>
+      <c r="H12">
+        <v>1</v>
       </c>
       <c r="I12" t="s">
-        <v>15</v>
-      </c>
-      <c r="J12" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
       </c>
       <c r="K12" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="L12" t="s">
         <v>63</v>
@@ -1181,63 +1175,63 @@
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B13" s="2">
+        <v>45646</v>
       </c>
       <c r="C13" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E13" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="G13" s="1">
-        <v>1350</v>
-      </c>
-      <c r="H13">
-        <v>1</v>
+        <v>2700</v>
+      </c>
+      <c r="H13" t="s">
+        <v>17</v>
       </c>
       <c r="I13" t="s">
-        <v>18</v>
-      </c>
-      <c r="J13">
-        <v>2</v>
+        <v>15</v>
+      </c>
+      <c r="J13" t="s">
+        <v>85</v>
       </c>
       <c r="K13" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="L13" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" s="2">
-        <v>45646</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>10</v>
       </c>
       <c r="C14" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E14" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F14" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="G14" s="1">
-        <v>2700</v>
+        <v>2500</v>
       </c>
       <c r="H14" t="s">
         <v>17</v>
@@ -1246,111 +1240,73 @@
         <v>15</v>
       </c>
       <c r="J14" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="K14" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="L14" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="B15" s="2">
+        <v>45624</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="E15" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="F15" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="G15" s="1">
-        <v>2500</v>
-      </c>
-      <c r="H15" t="s">
-        <v>17</v>
+        <v>1600</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
       </c>
       <c r="I15" t="s">
-        <v>15</v>
-      </c>
-      <c r="J15" t="s">
-        <v>88</v>
+        <v>18</v>
+      </c>
+      <c r="J15">
+        <v>2</v>
       </c>
       <c r="K15" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="L15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" s="2">
-        <v>45624</v>
-      </c>
-      <c r="C16" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" t="s">
-        <v>55</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" s="1">
-        <v>1600</v>
-      </c>
-      <c r="H16">
-        <v>1</v>
-      </c>
-      <c r="I16" t="s">
-        <v>18</v>
-      </c>
-      <c r="J16">
-        <v>2</v>
-      </c>
-      <c r="K16" t="s">
-        <v>87</v>
-      </c>
-      <c r="L16" t="s">
-        <v>71</v>
-      </c>
+      <c r="B16" s="2"/>
+      <c r="G16" s="1"/>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B17" s="2"/>
       <c r="G17" s="1"/>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B18" s="2"/>
       <c r="G18" s="1"/>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B19" s="2"/>
       <c r="G19" s="1"/>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.2">
+      <c r="B20" s="2"/>
       <c r="G20" s="1"/>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="B21" s="2"/>
       <c r="G21" s="1"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.2">
-      <c r="G22" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
